--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC4533-700B-4CA0-AAD7-62B3D5B3F4C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492BB34-58FF-4A10-8AC0-C6C230BE8DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Design CCS</t>
   </si>
@@ -171,21 +171,6 @@
     <t>9.4.2 Sensor de distancia infrarrojo</t>
   </si>
   <si>
-    <t>9.4.3 Sensor de distancia inductivo</t>
-  </si>
-  <si>
-    <t>9.4.5 Sensor de temperatura LM35</t>
-  </si>
-  <si>
-    <t>9.4.7 Sensor de temperatura Termocupla tipo K</t>
-  </si>
-  <si>
-    <t>9.4.8 Sensor de temperatura RTD PT-100</t>
-  </si>
-  <si>
-    <t>9.4.6 Sensor de temperatura Termocupla tipo J</t>
-  </si>
-  <si>
     <t>10.1 PWM motor 12VDC</t>
   </si>
   <si>
@@ -240,27 +225,6 @@
     <t>14.3 Control de humedad y temperatura sensor SHT1x_SHT7x</t>
   </si>
   <si>
-    <t>16.6.1 Micro a Bluetooth_pulsadores</t>
-  </si>
-  <si>
-    <t>16.6.2 Micro a Bluetooth_pulsadores_contador</t>
-  </si>
-  <si>
-    <t>16.6.3 Micro a Bluetooth_pulsadores_contador_sensor</t>
-  </si>
-  <si>
-    <t>16.6.4 Bluetooth a micro_bits</t>
-  </si>
-  <si>
-    <t>16.6.5 Bluetooth a micro_byte_7Seg</t>
-  </si>
-  <si>
-    <t>16.6.6 Bluetooth a micro_byte_PWM</t>
-  </si>
-  <si>
-    <t>16.6.7 Proyecto comunicacion micro_Bluetooth</t>
-  </si>
-  <si>
     <t>17.1 Plantilla proyecto</t>
   </si>
   <si>
@@ -331,6 +295,45 @@
   </si>
   <si>
     <t>0.0 a 100.0</t>
+  </si>
+  <si>
+    <t>13.1.1 Micro a Bluetooth_pulsadores</t>
+  </si>
+  <si>
+    <t>13.1.2 Micro a Bluetooth_pulsadores_contador</t>
+  </si>
+  <si>
+    <t>13.1.3 Micro a Bluetooth_pulsadores_contador_sensor</t>
+  </si>
+  <si>
+    <t>13.1.4 Bluetooth a micro_bits</t>
+  </si>
+  <si>
+    <t>13.1.5 Bluetooth a micro_byte_7Seg</t>
+  </si>
+  <si>
+    <t>13.1.6 Bluetooth a micro_byte_PWM</t>
+  </si>
+  <si>
+    <t>13.1.7 Proyecto comunicacion micro_Bluetooth</t>
+  </si>
+  <si>
+    <t>9.4.1 Sensor de distancia inductivo</t>
+  </si>
+  <si>
+    <t>9.4.3 Sensor de temperatura LM35</t>
+  </si>
+  <si>
+    <t>9.4.4 Sensor de temperatura Termocupla tipo J</t>
+  </si>
+  <si>
+    <t>9.4.5 Sensor de temperatura RTD PT-100</t>
+  </si>
+  <si>
+    <t>9.4.6 Sensor de temperatura Termocupla tipo K</t>
+  </si>
+  <si>
+    <t>9.4.7 Sensor de temperatura RTD PT-100</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,6 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,8 +1039,8 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,16 +1088,16 @@
         <v>10</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1182,7 +1186,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="12"/>
@@ -1203,7 +1207,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
@@ -1224,7 +1228,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="12"/>
@@ -1245,7 +1249,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="12"/>
@@ -1350,7 +1354,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1371,7 +1375,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1392,7 +1396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1749,7 +1753,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="12"/>
@@ -1770,7 +1774,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
@@ -1791,7 +1795,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
@@ -1812,7 +1816,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -2001,7 +2005,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -2043,7 +2047,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -2064,7 +2068,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -2085,7 +2089,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -2106,7 +2110,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -2148,7 +2152,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -2169,7 +2173,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -2190,11 +2194,11 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="22"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
@@ -2211,11 +2215,11 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="22"/>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
@@ -2232,7 +2236,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -2253,7 +2257,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -2274,15 +2278,15 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
       <c r="I58" s="22"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6"/>
@@ -2295,15 +2299,15 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="22"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
       <c r="I59" s="22"/>
       <c r="J59" s="5"/>
       <c r="K59" s="6"/>
@@ -2316,15 +2320,15 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="12"/>
       <c r="E60" s="22"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="22"/>
       <c r="J60" s="5"/>
       <c r="K60" s="6"/>
@@ -2337,15 +2341,15 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="22"/>
       <c r="J61" s="5"/>
       <c r="K61" s="6"/>
@@ -2358,15 +2362,15 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="22"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
       <c r="I62" s="22"/>
       <c r="J62" s="5"/>
       <c r="K62" s="6"/>
@@ -2379,15 +2383,15 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
       <c r="I63" s="22"/>
       <c r="J63" s="5"/>
       <c r="K63" s="6"/>
@@ -2400,7 +2404,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -2421,15 +2425,15 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="22"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="22"/>
       <c r="J65" s="5"/>
       <c r="K65" s="6"/>
@@ -2442,15 +2446,15 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="22"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="22"/>
       <c r="J66" s="5"/>
       <c r="K66" s="6"/>
@@ -2463,7 +2467,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2484,7 +2488,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2505,13 +2509,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="22"/>
@@ -2526,7 +2530,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2547,7 +2551,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2568,7 +2572,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2589,7 +2593,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2610,7 +2614,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2631,133 +2635,133 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
       <c r="I75" s="22"/>
       <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="22"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="7"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="28"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="22"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
       <c r="I76" s="22"/>
       <c r="J76" s="5"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="22"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="7"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="28"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="22"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
       <c r="I77" s="22"/>
       <c r="J77" s="5"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="22"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="7"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="28"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="22"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="22"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="22"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="7"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="28"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="22"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="22"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="22"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="7"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="28"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="22"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="22"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="22"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="7"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="28"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2778,13 +2782,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="22"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="22"/>
@@ -2799,13 +2803,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="12"/>
       <c r="E83" s="22"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="22"/>
@@ -2820,11 +2824,11 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="12"/>
       <c r="E84" s="22"/>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
@@ -2841,7 +2845,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -2862,7 +2866,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -2883,7 +2887,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -2904,7 +2908,7 @@
     </row>
     <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B492BB34-58FF-4A10-8AC0-C6C230BE8DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9C6A1-2189-472F-B8B6-A8B41FA8931B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Design CCS</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>9.4.7 Sensor de temperatura RTD PT-100</t>
+  </si>
+  <si>
+    <t>9.4.2 Sensor de distancia ultrasónico</t>
   </si>
 </sst>
 </file>
@@ -1036,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,11 +2176,11 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="22"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
@@ -2194,11 +2197,11 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="22"/>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
@@ -2215,7 +2218,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -2278,15 +2281,15 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="22"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6"/>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -2320,15 +2323,15 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="12"/>
       <c r="E60" s="22"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="22"/>
       <c r="J60" s="5"/>
       <c r="K60" s="6"/>
@@ -2341,11 +2344,11 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="22"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
@@ -2362,15 +2365,15 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="22"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="22"/>
       <c r="J62" s="5"/>
       <c r="K62" s="6"/>
@@ -2383,7 +2386,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -2425,15 +2428,15 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="22"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
       <c r="I65" s="22"/>
       <c r="J65" s="5"/>
       <c r="K65" s="6"/>
@@ -2446,7 +2449,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -2467,7 +2470,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2488,7 +2491,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2509,13 +2512,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="22"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="22"/>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2551,7 +2554,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2635,28 +2638,28 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="22"/>
       <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="22"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="28"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2677,7 +2680,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2698,15 +2701,15 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="22"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="22"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6"/>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2740,7 +2743,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2761,7 +2764,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2775,20 +2778,20 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="22"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="7"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="28"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="22"/>
-      <c r="F82" s="5"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="22"/>
@@ -2803,11 +2806,11 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="12"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="22"/>
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -2845,11 +2848,11 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="12"/>
       <c r="E85" s="22"/>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -2906,26 +2909,47 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="7"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="10"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C9C6A1-2189-472F-B8B6-A8B41FA8931B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546DF59-B6CB-4C9F-BA36-DB2D0D7F5053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,17 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Design CCS</t>
   </si>
@@ -87,30 +82,12 @@
     <t>2.4 XOR</t>
   </si>
   <si>
-    <t>3.1.1 Control motor DC con transistor BJT</t>
-  </si>
-  <si>
-    <t>3.1.2 Puente H transistores BJT</t>
-  </si>
-  <si>
-    <t>3.1.3 Control motor paso a paso unipolar</t>
-  </si>
-  <si>
-    <t>3.1.4 Control motor paso a paso bipolar</t>
-  </si>
-  <si>
-    <t>3.2 Interfaz de salida optotransistor</t>
-  </si>
-  <si>
     <t>3.3.1 Control motor DC con transistor MOSFET</t>
   </si>
   <si>
     <t>3.3.2 Puente H transistores MOSFET</t>
   </si>
   <si>
-    <t>3.4 Interfaz de salida rele</t>
-  </si>
-  <si>
     <t>3.5 Interfaz de salida TRIAC</t>
   </si>
   <si>
@@ -123,12 +100,6 @@
     <t>3.6.3 Inversor de giro motor AC</t>
   </si>
   <si>
-    <t>3.7 Interfaz de entrada transistor BJT</t>
-  </si>
-  <si>
-    <t>3.8 Interfaz de entrada optotransistor</t>
-  </si>
-  <si>
     <t>4.1.1 Contador 0 - 9 sin decodificador</t>
   </si>
   <si>
@@ -156,21 +127,12 @@
     <t>8.1 Contador 0-99 Display 7Seg</t>
   </si>
   <si>
-    <t>9.1 Lectura convertidor Análogo_Digital</t>
-  </si>
-  <si>
     <t>9.2 Escalamiento de lectura analogica (Formula)</t>
   </si>
   <si>
     <t>9.3 Funcion map para escalamiento de lectura analogica</t>
   </si>
   <si>
-    <t>9.4.1 Sensor de humedad relativa</t>
-  </si>
-  <si>
-    <t>9.4.2 Sensor de distancia infrarrojo</t>
-  </si>
-  <si>
     <t>10.1 PWM motor 12VDC</t>
   </si>
   <si>
@@ -222,9 +184,6 @@
     <t>12.2.5 Sensor de humedad y temperatura SHT20</t>
   </si>
   <si>
-    <t>14.3 Control de humedad y temperatura sensor SHT1x_SHT7x</t>
-  </si>
-  <si>
     <t>17.1 Plantilla proyecto</t>
   </si>
   <si>
@@ -282,9 +241,6 @@
     <t>4.1.5 Contador 0 - 99 multiplexado</t>
   </si>
   <si>
-    <t>0 a 1023</t>
-  </si>
-  <si>
     <t>0 a 100</t>
   </si>
   <si>
@@ -318,25 +274,118 @@
     <t>13.1.7 Proyecto comunicacion micro_Bluetooth</t>
   </si>
   <si>
-    <t>9.4.1 Sensor de distancia inductivo</t>
-  </si>
-  <si>
-    <t>9.4.3 Sensor de temperatura LM35</t>
-  </si>
-  <si>
-    <t>9.4.4 Sensor de temperatura Termocupla tipo J</t>
-  </si>
-  <si>
-    <t>9.4.5 Sensor de temperatura RTD PT-100</t>
-  </si>
-  <si>
-    <t>9.4.6 Sensor de temperatura Termocupla tipo K</t>
-  </si>
-  <si>
-    <t>9.4.7 Sensor de temperatura RTD PT-100</t>
-  </si>
-  <si>
-    <t>9.4.2 Sensor de distancia ultrasónico</t>
+    <t>3.1.1 Control motor DC con transistor NPN</t>
+  </si>
+  <si>
+    <t>3.1.2 Control motor DC con transistor PNP</t>
+  </si>
+  <si>
+    <t>3.1.3 Puente H transistores BJT</t>
+  </si>
+  <si>
+    <t>3.1.4 Control motor paso a paso unipolar</t>
+  </si>
+  <si>
+    <t>3.1.5 Control motor paso a paso bipolar</t>
+  </si>
+  <si>
+    <t>3.2.1 Control motor DC con optotransistor y transistor NPN</t>
+  </si>
+  <si>
+    <t>3.2.2 Control motor DC con optotransistor y transistor NPN</t>
+  </si>
+  <si>
+    <t>3.4.1 Interfaz de salida relé electromecánico</t>
+  </si>
+  <si>
+    <t>3.4.2 Interfaz de salida relé de estado sólido</t>
+  </si>
+  <si>
+    <t>3.7.1 Interfaz de entrada transistor BJT</t>
+  </si>
+  <si>
+    <t>3.7.2 Interfaz de entrada optotransistor</t>
+  </si>
+  <si>
+    <t>4.3.1 Driver GLCD 128x64</t>
+  </si>
+  <si>
+    <t>17.4 Control de acceso con teclado y display</t>
+  </si>
+  <si>
+    <t>17.5 Control de acceso con RFID</t>
+  </si>
+  <si>
+    <t>16.2 Control ON-OFF</t>
+  </si>
+  <si>
+    <t>16.1 Caracterización del sistema en lazo abierto</t>
+  </si>
+  <si>
+    <t>16.3 Control proporcional</t>
+  </si>
+  <si>
+    <t>16.4 Control proporcional-integral</t>
+  </si>
+  <si>
+    <t>16.5 Control proporcional-integral-derivativo</t>
+  </si>
+  <si>
+    <t>16.6 Control de temperatura</t>
+  </si>
+  <si>
+    <t>16.7 Control de velocidad</t>
+  </si>
+  <si>
+    <t>15.1.1 Sensor de distancia inductivo</t>
+  </si>
+  <si>
+    <t>15.1.2 Sensor de distancia ultrasónico</t>
+  </si>
+  <si>
+    <t>15.1.3 Sensor de temperatura LM35</t>
+  </si>
+  <si>
+    <t>15.1.4 Sensor de temperatura Termocupla tipo J</t>
+  </si>
+  <si>
+    <t>15.1.6 Sensor de temperatura Termocupla tipo K</t>
+  </si>
+  <si>
+    <t>15.1.5 Sensor de temperatura RTD PT-100</t>
+  </si>
+  <si>
+    <t>15.1.7 Sensor de temperatura RTD PT-1000</t>
+  </si>
+  <si>
+    <t>15.2.2 Sensor de distancia infrarrojo</t>
+  </si>
+  <si>
+    <t>15.1.8 Sensor de humedad relativa</t>
+  </si>
+  <si>
+    <t>10. análoga (PWM)</t>
+  </si>
+  <si>
+    <t>9. Entradas análogas</t>
+  </si>
+  <si>
+    <t>9.1 Lectura convertidor Análogo / Digital</t>
+  </si>
+  <si>
+    <t>1. Entradas y salidas digitales</t>
+  </si>
+  <si>
+    <t>2. Operaciones lógicas</t>
+  </si>
+  <si>
+    <t>3. interfaces de potencia</t>
+  </si>
+  <si>
+    <t>4. Visualización</t>
+  </si>
+  <si>
+    <t>7. Teclado</t>
   </si>
 </sst>
 </file>
@@ -360,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +428,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -705,11 +760,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,8 +864,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -751,7 +882,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -759,6 +889,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,11 +1195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,8 +1209,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1063,10 +1219,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1078,7 +1234,7 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1087,1869 +1243,2265 @@
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="19" t="s">
-        <v>77</v>
+      <c r="N1" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
+      <c r="A5" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="5"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>73</v>
+      <c r="A6" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="5"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>74</v>
+      <c r="A7" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="5"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>75</v>
+      <c r="A8" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="22"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>76</v>
+      <c r="A9" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="22"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="11"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11"/>
+      <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="22"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="22"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="7"/>
+      <c r="A11" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>18</v>
+      <c r="A12" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="22"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>19</v>
+      <c r="A13" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="22"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>70</v>
+      <c r="A14" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="22"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>71</v>
+      <c r="A15" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="22"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>72</v>
+      <c r="A16" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="22"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5"/>
+      <c r="A17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="22"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5"/>
+      <c r="A18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="22"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="7"/>
+      <c r="A19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>23</v>
+      <c r="A20" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="22"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>24</v>
+      <c r="A21" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>25</v>
+      <c r="A22" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="22"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>26</v>
+      <c r="A23" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="22"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>27</v>
+      <c r="A24" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="22"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>28</v>
+      <c r="A25" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="22"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>29</v>
+      <c r="A26" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="22"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="22"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>30</v>
+      <c r="A27" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="22"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>31</v>
+      <c r="A28" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="22"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>32</v>
+      <c r="A29" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="22"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>33</v>
+      <c r="A30" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="22"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="5"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="22"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="11"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="11"/>
+      <c r="A31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="22"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="11"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>35</v>
+      <c r="A32" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="22"/>
+      <c r="M32" s="19"/>
       <c r="N32" s="11"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>81</v>
+      <c r="A33" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="22"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="22"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="22"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="11"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>82</v>
+      <c r="A34" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="22"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="22"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="5"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="22"/>
+      <c r="M34" s="19"/>
       <c r="N34" s="11"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>84</v>
+      <c r="A35" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="22"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="5"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="22"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="11"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>83</v>
+      <c r="A36" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="22"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="22"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="11"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="7"/>
+      <c r="A37" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="34"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>37</v>
+      <c r="A38" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="22"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>38</v>
+      <c r="A39" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="22"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>39</v>
+      <c r="A40" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="22"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>40</v>
+      <c r="A41" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="22"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>41</v>
+      <c r="A42" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="22"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>42</v>
+      <c r="A43" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="22"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="22"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="22"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="22"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="19"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="22"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="22"/>
+      <c r="I45" s="19"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="22"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="19"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="22"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="22"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="19"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>86</v>
+      <c r="A47" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="22"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="22"/>
+      <c r="M47" s="19"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>87</v>
+      <c r="A48" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="22"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="22"/>
+      <c r="M48" s="19"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="7"/>
+      <c r="A49" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="34"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>89</v>
+      <c r="A50" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="22"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="5"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="22"/>
+      <c r="M50" s="19"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>45</v>
+      <c r="A51" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="22"/>
+      <c r="I51" s="19"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="22"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>97</v>
+      <c r="A52" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="22"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="22"/>
+      <c r="I52" s="19"/>
       <c r="J52" s="5"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="22"/>
+      <c r="M52" s="19"/>
       <c r="N52" s="5"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="7"/>
+      <c r="A53" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="34"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>98</v>
+      <c r="A54" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="22"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="19"/>
       <c r="J54" s="5"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="22"/>
+      <c r="M54" s="19"/>
       <c r="N54" s="5"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>99</v>
+      <c r="A55" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="22"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="19"/>
       <c r="J55" s="5"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="22"/>
+      <c r="M55" s="19"/>
       <c r="N55" s="5"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="22"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="19"/>
       <c r="J56" s="5"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="22"/>
+      <c r="M56" s="19"/>
       <c r="N56" s="5"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="7"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>101</v>
+      <c r="A57" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="22"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="19"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="22"/>
+      <c r="M57" s="19"/>
       <c r="N57" s="5"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>102</v>
+      <c r="A58" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="22"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="19"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="22"/>
+      <c r="M58" s="19"/>
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>48</v>
+      <c r="A59" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="22"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="22"/>
+      <c r="I59" s="19"/>
       <c r="J59" s="5"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="22"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="5"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
-        <v>49</v>
+      <c r="A60" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="22"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="11"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="22"/>
+      <c r="I60" s="19"/>
       <c r="J60" s="5"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="22"/>
+      <c r="M60" s="19"/>
       <c r="N60" s="5"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
-        <v>50</v>
+      <c r="A61" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="22"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="19"/>
       <c r="J61" s="5"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="22"/>
+      <c r="M61" s="19"/>
       <c r="N61" s="5"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="7"/>
+      <c r="A62" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="34"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>52</v>
+      <c r="A63" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="22"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="22"/>
+      <c r="I63" s="19"/>
       <c r="J63" s="5"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="22"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="5"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>53</v>
+      <c r="A64" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="22"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="11"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="22"/>
+      <c r="I64" s="19"/>
       <c r="J64" s="5"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="22"/>
+      <c r="M64" s="19"/>
       <c r="N64" s="5"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="7"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>54</v>
+      <c r="A65" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="22"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="19"/>
       <c r="J65" s="5"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="22"/>
+      <c r="M65" s="19"/>
       <c r="N65" s="5"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="7"/>
+      <c r="A66" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="34"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>56</v>
+      <c r="A67" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="22"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="22"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="19"/>
       <c r="J67" s="5"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="22"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="5"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>57</v>
+      <c r="A68" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="22"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="19"/>
       <c r="J68" s="5"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="22"/>
+      <c r="M68" s="19"/>
       <c r="N68" s="5"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>58</v>
+      <c r="A69" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="22"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="22"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="19"/>
       <c r="J69" s="5"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="22"/>
+      <c r="M69" s="19"/>
       <c r="N69" s="5"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>59</v>
+      <c r="A70" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="5"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="22"/>
+      <c r="I70" s="19"/>
       <c r="J70" s="5"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="22"/>
+      <c r="M70" s="19"/>
       <c r="N70" s="5"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
-        <v>60</v>
+      <c r="A71" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="5"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="22"/>
+      <c r="I71" s="19"/>
       <c r="J71" s="5"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="22"/>
+      <c r="M71" s="19"/>
       <c r="N71" s="5"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
-        <v>61</v>
+      <c r="A72" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="5"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="22"/>
+      <c r="I72" s="19"/>
       <c r="J72" s="5"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="22"/>
+      <c r="M72" s="19"/>
       <c r="N72" s="5"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="7"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>62</v>
+      <c r="A73" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="5"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="22"/>
+      <c r="I73" s="19"/>
       <c r="J73" s="5"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="22"/>
+      <c r="M73" s="19"/>
       <c r="N73" s="5"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="7"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>63</v>
+      <c r="A74" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="22"/>
+      <c r="E74" s="19"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="22"/>
+      <c r="I74" s="19"/>
       <c r="J74" s="5"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="22"/>
+      <c r="M74" s="19"/>
       <c r="N74" s="5"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="7"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>64</v>
+      <c r="A75" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="22"/>
+      <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="22"/>
+      <c r="I75" s="19"/>
       <c r="J75" s="5"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="22"/>
+      <c r="M75" s="19"/>
       <c r="N75" s="5"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="7"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>90</v>
+      <c r="A76" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="22"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="5"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="28"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>91</v>
+      <c r="A77" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="22"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="19"/>
       <c r="J77" s="5"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="28"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="7"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>92</v>
+      <c r="A78" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="22"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="19"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="28"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="7"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>93</v>
+      <c r="A79" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="11"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="22"/>
+      <c r="I79" s="19"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="28"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="7"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>94</v>
+      <c r="A80" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="22"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="22"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="19"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="22"/>
+      <c r="M80" s="19"/>
       <c r="N80" s="11"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
-      <c r="Q80" s="28"/>
+      <c r="Q80" s="25"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>95</v>
+      <c r="A81" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="22"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="11"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="22"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="19"/>
       <c r="J81" s="5"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="22"/>
+      <c r="M81" s="19"/>
       <c r="N81" s="11"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
-      <c r="Q81" s="28"/>
+      <c r="Q81" s="25"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>96</v>
+      <c r="A82" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="22"/>
+      <c r="E82" s="19"/>
       <c r="F82" s="11"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="22"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="19"/>
       <c r="J82" s="5"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="7"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="25"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
-        <v>65</v>
+      <c r="A83" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="5"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="22"/>
+      <c r="I83" s="19"/>
       <c r="J83" s="5"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="7"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="25"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
-        <v>47</v>
+      <c r="A84" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="22"/>
+      <c r="I84" s="19"/>
       <c r="J84" s="5"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="7"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="25"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>46</v>
+      <c r="A85" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="22"/>
+      <c r="I85" s="19"/>
       <c r="J85" s="5"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="7"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="25"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>66</v>
+      <c r="A86" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="5"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="22"/>
+      <c r="I86" s="19"/>
       <c r="J86" s="5"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="22"/>
+      <c r="M86" s="19"/>
       <c r="N86" s="5"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="7"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>67</v>
+      <c r="A87" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="22"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="22"/>
+      <c r="I87" s="19"/>
       <c r="J87" s="5"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="22"/>
+      <c r="M87" s="19"/>
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="7"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>68</v>
+      <c r="A88" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="22"/>
+      <c r="E88" s="19"/>
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="22"/>
+      <c r="I88" s="19"/>
       <c r="J88" s="5"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="22"/>
+      <c r="M88" s="19"/>
       <c r="N88" s="5"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="10"/>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="7"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="7"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="7"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="7"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="7"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="7"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="7"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="7"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="7"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="7"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="7"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="7"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="7"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="7"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="7"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="7"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="7"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="29"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="26"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="29"/>
+    </row>
+    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Microcontroladores/Capitulos.xlsx
+++ b/Microcontroladores/Capitulos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546DF59-B6CB-4C9F-BA36-DB2D0D7F5053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>Design CCS</t>
   </si>
@@ -70,51 +69,6 @@
     <t>1.4 Entrada digital puerto</t>
   </si>
   <si>
-    <t>2.1 NOT</t>
-  </si>
-  <si>
-    <t>2.2 AND</t>
-  </si>
-  <si>
-    <t>2.3 OR</t>
-  </si>
-  <si>
-    <t>2.4 XOR</t>
-  </si>
-  <si>
-    <t>3.3.1 Control motor DC con transistor MOSFET</t>
-  </si>
-  <si>
-    <t>3.3.2 Puente H transistores MOSFET</t>
-  </si>
-  <si>
-    <t>3.5 Interfaz de salida TRIAC</t>
-  </si>
-  <si>
-    <t>3.6.1 Arranque directo motor AC</t>
-  </si>
-  <si>
-    <t>3.6.2 Arranque estrella-triangulo motor AC</t>
-  </si>
-  <si>
-    <t>3.6.3 Inversor de giro motor AC</t>
-  </si>
-  <si>
-    <t>4.1.1 Contador 0 - 9 sin decodificador</t>
-  </si>
-  <si>
-    <t>4.1.2 Contador 0 - 99 sin decodificador</t>
-  </si>
-  <si>
-    <t>4.2.1 Driver LCD2x16 y LCD4x20</t>
-  </si>
-  <si>
-    <t>4.2.2 Contador 0 a 100 LCD2x16</t>
-  </si>
-  <si>
-    <t>5. Interrupción externa INT</t>
-  </si>
-  <si>
     <t>6.1 Temporizador minutos y segundos</t>
   </si>
   <si>
@@ -124,18 +78,6 @@
     <t>7.2 Teclado membrana</t>
   </si>
   <si>
-    <t>8.1 Contador 0-99 Display 7Seg</t>
-  </si>
-  <si>
-    <t>9.2 Escalamiento de lectura analogica (Formula)</t>
-  </si>
-  <si>
-    <t>9.3 Funcion map para escalamiento de lectura analogica</t>
-  </si>
-  <si>
-    <t>10.1 PWM motor 12VDC</t>
-  </si>
-  <si>
     <t>10.2 PWM motor DC industrial</t>
   </si>
   <si>
@@ -184,27 +126,12 @@
     <t>12.2.5 Sensor de humedad y temperatura SHT20</t>
   </si>
   <si>
-    <t>17.1 Plantilla proyecto</t>
-  </si>
-  <si>
-    <t>17.2 Control de tiempo y velocidad</t>
-  </si>
-  <si>
     <t>17.3 Alarma cambio de turno</t>
   </si>
   <si>
     <t>17.9 Probador de CI 74XX</t>
   </si>
   <si>
-    <t>2.5 NAND</t>
-  </si>
-  <si>
-    <t>2.6 NOR</t>
-  </si>
-  <si>
-    <t>2.7 XNOR</t>
-  </si>
-  <si>
     <t>1.5.1 ENTRADA PULL_DOWN - SALIDA PULL_DOWN</t>
   </si>
   <si>
@@ -229,30 +156,6 @@
     <t>html MSP430</t>
   </si>
   <si>
-    <t>4.1.3 Contador 0 - 9 con decodificador</t>
-  </si>
-  <si>
-    <t>4.1.4 Contador 0 - 99 con decodificador</t>
-  </si>
-  <si>
-    <t>4.1.6 Contador 0 - 999 multiplexado</t>
-  </si>
-  <si>
-    <t>4.1.5 Contador 0 - 99 multiplexado</t>
-  </si>
-  <si>
-    <t>0 a 100</t>
-  </si>
-  <si>
-    <t>20 a 80</t>
-  </si>
-  <si>
-    <t>_-50 a 150</t>
-  </si>
-  <si>
-    <t>0.0 a 100.0</t>
-  </si>
-  <si>
     <t>13.1.1 Micro a Bluetooth_pulsadores</t>
   </si>
   <si>
@@ -274,42 +177,6 @@
     <t>13.1.7 Proyecto comunicacion micro_Bluetooth</t>
   </si>
   <si>
-    <t>3.1.1 Control motor DC con transistor NPN</t>
-  </si>
-  <si>
-    <t>3.1.2 Control motor DC con transistor PNP</t>
-  </si>
-  <si>
-    <t>3.1.3 Puente H transistores BJT</t>
-  </si>
-  <si>
-    <t>3.1.4 Control motor paso a paso unipolar</t>
-  </si>
-  <si>
-    <t>3.1.5 Control motor paso a paso bipolar</t>
-  </si>
-  <si>
-    <t>3.2.1 Control motor DC con optotransistor y transistor NPN</t>
-  </si>
-  <si>
-    <t>3.2.2 Control motor DC con optotransistor y transistor NPN</t>
-  </si>
-  <si>
-    <t>3.4.1 Interfaz de salida relé electromecánico</t>
-  </si>
-  <si>
-    <t>3.4.2 Interfaz de salida relé de estado sólido</t>
-  </si>
-  <si>
-    <t>3.7.1 Interfaz de entrada transistor BJT</t>
-  </si>
-  <si>
-    <t>3.7.2 Interfaz de entrada optotransistor</t>
-  </si>
-  <si>
-    <t>4.3.1 Driver GLCD 128x64</t>
-  </si>
-  <si>
     <t>17.4 Control de acceso con teclado y display</t>
   </si>
   <si>
@@ -364,34 +231,166 @@
     <t>15.1.8 Sensor de humedad relativa</t>
   </si>
   <si>
-    <t>10. análoga (PWM)</t>
-  </si>
-  <si>
-    <t>9. Entradas análogas</t>
-  </si>
-  <si>
-    <t>9.1 Lectura convertidor Análogo / Digital</t>
-  </si>
-  <si>
     <t>1. Entradas y salidas digitales</t>
   </si>
   <si>
-    <t>2. Operaciones lógicas</t>
-  </si>
-  <si>
-    <t>3. interfaces de potencia</t>
-  </si>
-  <si>
-    <t>4. Visualización</t>
-  </si>
-  <si>
-    <t>7. Teclado</t>
+    <t>1.6 Interrupción externa INT</t>
+  </si>
+  <si>
+    <t>2. interfaces de potencia</t>
+  </si>
+  <si>
+    <t>2.1.1 Control motor DC con transistor NPN</t>
+  </si>
+  <si>
+    <t>2.1.2 Control motor DC con transistor PNP</t>
+  </si>
+  <si>
+    <t>2.2.1 Control motor DC con optotransistor y transistor NPN</t>
+  </si>
+  <si>
+    <t>2.2.2 Control motor DC con optotransistor y transistor NPN</t>
+  </si>
+  <si>
+    <t>2.3.1 Control motor DC con transistor MOSFET</t>
+  </si>
+  <si>
+    <t>2.3.2 Puente H transistores MOSFET</t>
+  </si>
+  <si>
+    <t>2.4.1 Interfaz de salida relé electromecánico</t>
+  </si>
+  <si>
+    <t>2.4.2 Interfaz de salida relé de estado sólido</t>
+  </si>
+  <si>
+    <t>2.5 Interfaz de salida TRIAC</t>
+  </si>
+  <si>
+    <t>2.6.1 Arranque directo motor AC</t>
+  </si>
+  <si>
+    <t>2.6.2 Arranque estrella-triangulo motor AC</t>
+  </si>
+  <si>
+    <t>2.6.3 Inversor de giro motor AC</t>
+  </si>
+  <si>
+    <t>2.7.1 Interfaz de entrada transistor BJT</t>
+  </si>
+  <si>
+    <t>2.7.2 Interfaz de entrada optotransistor</t>
+  </si>
+  <si>
+    <t>2.8.1 Puente H transistores BJT</t>
+  </si>
+  <si>
+    <t>2.8.3 Control motor paso a paso unipolar</t>
+  </si>
+  <si>
+    <t>2.8.4 Control motor paso a paso bipolar</t>
+  </si>
+  <si>
+    <t>3. Visualización</t>
+  </si>
+  <si>
+    <t>3.1.1 Contador 0 - 9 sin decodificador</t>
+  </si>
+  <si>
+    <t>3.1.2 Contador 0 - 99 sin decodificador</t>
+  </si>
+  <si>
+    <t>3.1.3 Contador 0 - 9 con decodificador</t>
+  </si>
+  <si>
+    <t>3.1.4 Contador 0 - 99 con decodificador</t>
+  </si>
+  <si>
+    <t>3.1.5 Contador 0 - 99 multiplexado</t>
+  </si>
+  <si>
+    <t>3.1.6 Contador 0 - 999 multiplexado</t>
+  </si>
+  <si>
+    <t>3.2.1 Driver LCD2x16 y LCD4x20</t>
+  </si>
+  <si>
+    <t>3.2.2 Contador 0 a 100 LCD2x16</t>
+  </si>
+  <si>
+    <t>3.3.1 Driver GLCD 128x64</t>
+  </si>
+  <si>
+    <t>4. EEPROM</t>
+  </si>
+  <si>
+    <t>4.1 Memorizar estado salida</t>
+  </si>
+  <si>
+    <t>4.2 Contador 0 - 9 Display 7 segmentos</t>
+  </si>
+  <si>
+    <t>4.3 Contador 0 - 99 Display 7 segmentos</t>
+  </si>
+  <si>
+    <t>4.4 Contador 0 a 100 Display LCD</t>
+  </si>
+  <si>
+    <t>5. Entradas análogas</t>
+  </si>
+  <si>
+    <t>5.1 Lectura convertidor Análogo / Digital y escalamiento (Fórmula)</t>
+  </si>
+  <si>
+    <t>5.2 Funcion map para escalamiento de lectura analogica</t>
+  </si>
+  <si>
+    <t>6. Sensores</t>
+  </si>
+  <si>
+    <t>10. Control con microcontrolador</t>
+  </si>
+  <si>
+    <t>14. Operaciones lógicas</t>
+  </si>
+  <si>
+    <t>14.1.1 NOT</t>
+  </si>
+  <si>
+    <t>14.1.2 AND</t>
+  </si>
+  <si>
+    <t>14.1.3 OR</t>
+  </si>
+  <si>
+    <t>14.1.4 XOR</t>
+  </si>
+  <si>
+    <t>14.1.7 XNOR</t>
+  </si>
+  <si>
+    <t>14.1.6 NOR</t>
+  </si>
+  <si>
+    <t>14.1.5 NAND</t>
+  </si>
+  <si>
+    <t>13. Proyectos</t>
+  </si>
+  <si>
+    <t>13.2 Control de tiempo y velocidad</t>
+  </si>
+  <si>
+    <t>7. Salida análoga (PWM)</t>
+  </si>
+  <si>
+    <t>7.1 PWM motor 12VDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1194,17 +1193,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" style="2" customWidth="1"/>
     <col min="2" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1247,21 +1246,21 @@
         <v>10</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
@@ -1366,7 +1365,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="12"/>
@@ -1387,7 +1386,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="12"/>
@@ -1408,7 +1407,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="12"/>
@@ -1429,7 +1428,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="12"/>
@@ -1449,52 +1448,52 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="34"/>
+      <c r="A11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="7"/>
+      <c r="A12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="19"/>
@@ -1513,9 +1512,9 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="19"/>
@@ -1534,9 +1533,9 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="19"/>
@@ -1555,9 +1554,9 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="19"/>
@@ -1576,9 +1575,9 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="19"/>
@@ -1597,9 +1596,9 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="19"/>
@@ -1617,29 +1616,29 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="34"/>
+      <c r="A19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="12"/>
@@ -1660,7 +1659,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="12"/>
@@ -1681,7 +1680,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="12"/>
@@ -1702,49 +1701,49 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="19"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="19"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="12"/>
@@ -1765,7 +1764,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="12"/>
@@ -1786,7 +1785,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="12"/>
@@ -1807,72 +1806,72 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="19"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="19"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="19"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="19"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="7"/>
+      <c r="A30" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="19"/>
@@ -1891,7 +1890,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="12"/>
@@ -1912,7 +1911,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="12"/>
@@ -1933,7 +1932,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
@@ -1954,7 +1953,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
@@ -1975,11 +1974,11 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="19"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
@@ -1995,29 +1994,29 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="34"/>
+      <c r="A37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -2028,19 +2027,19 @@
       <c r="H38" s="12"/>
       <c r="I38" s="19"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="19"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="19"/>
@@ -2049,61 +2048,61 @@
       <c r="H39" s="12"/>
       <c r="I39" s="19"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="12"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="19"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="19"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="7"/>
+      <c r="A41" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="34"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="19"/>
@@ -2122,11 +2121,11 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="19"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
@@ -2143,9 +2142,9 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="19"/>
@@ -2154,19 +2153,19 @@
       <c r="H44" s="12"/>
       <c r="I44" s="19"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="19"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="19"/>
@@ -2175,46 +2174,46 @@
       <c r="H45" s="12"/>
       <c r="I45" s="19"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="19"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="7"/>
+      <c r="A46" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="34"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="19"/>
       <c r="J47" s="5"/>
       <c r="K47" s="6"/>
@@ -2227,15 +2226,15 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="12"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="19"/>
       <c r="J48" s="5"/>
       <c r="K48" s="6"/>
@@ -2248,7 +2247,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
@@ -2269,14 +2268,14 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="12"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="19"/>
       <c r="J50" s="5"/>
@@ -2290,7 +2289,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -2298,7 +2297,7 @@
       <c r="E51" s="19"/>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="12"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="19"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6"/>
@@ -2311,11 +2310,11 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="19"/>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
@@ -2331,37 +2330,37 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="34"/>
+      <c r="A53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="19"/>
       <c r="J54" s="5"/>
       <c r="K54" s="6"/>
@@ -2374,15 +2373,15 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="19"/>
       <c r="J55" s="5"/>
       <c r="K55" s="6"/>
@@ -2394,13 +2393,16 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="12"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="19"/>
       <c r="J56" s="5"/>
       <c r="K56" s="6"/>
@@ -2413,15 +2415,15 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="19"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6"/>
@@ -2434,15 +2436,15 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="19"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6"/>
@@ -2455,15 +2457,15 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="19"/>
       <c r="J59" s="5"/>
       <c r="K59" s="6"/>
@@ -2475,33 +2477,33 @@
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="7"/>
+      <c r="A60" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="34"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="19"/>
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
@@ -2517,37 +2519,37 @@
       <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="34"/>
+      <c r="A62" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="7"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="12"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="19"/>
       <c r="J63" s="5"/>
       <c r="K63" s="6"/>
@@ -2559,37 +2561,37 @@
       <c r="Q63" s="7"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="7"/>
+      <c r="A64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="34"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="12"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
       <c r="I65" s="19"/>
       <c r="J65" s="5"/>
       <c r="K65" s="6"/>
@@ -2601,29 +2603,29 @@
       <c r="Q65" s="7"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="34"/>
+      <c r="A66" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="7"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2644,15 +2646,15 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="19"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
       <c r="I68" s="19"/>
       <c r="J68" s="5"/>
       <c r="K68" s="6"/>
@@ -2665,15 +2667,15 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="19"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="19"/>
       <c r="J69" s="5"/>
       <c r="K69" s="6"/>
@@ -2686,7 +2688,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2707,7 +2709,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2727,35 +2729,35 @@
       <c r="Q71" s="7"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="7"/>
+      <c r="A72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="34"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="19"/>
@@ -2770,7 +2772,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2791,7 +2793,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2812,7 +2814,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2833,7 +2835,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2854,7 +2856,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2875,28 +2877,28 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
       <c r="I79" s="19"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="19"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="7"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="25"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2917,7 +2919,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2938,15 +2940,15 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="19"/>
       <c r="F82" s="11"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="19"/>
       <c r="J82" s="5"/>
       <c r="K82" s="6"/>
@@ -2959,7 +2961,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -3001,7 +3003,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -3015,35 +3017,35 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="19"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="25"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="7"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="7"/>
+      <c r="A86" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="34"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -3064,11 +3066,11 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="12"/>
       <c r="E88" s="19"/>
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
@@ -3085,7 +3087,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -3106,11 +3108,11 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="12"/>
       <c r="E90" s="19"/>
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
@@ -3127,11 +3129,11 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="12"/>
       <c r="E91" s="19"/>
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
@@ -3148,11 +3150,11 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="12"/>
       <c r="E92" s="19"/>
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
@@ -3169,11 +3171,11 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="12"/>
       <c r="E93" s="19"/>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
@@ -3189,29 +3191,29 @@
       <c r="Q93" s="7"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="7"/>
+      <c r="A94" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="34"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -3219,7 +3221,7 @@
       <c r="E95" s="19"/>
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="12"/>
       <c r="I95" s="19"/>
       <c r="J95" s="5"/>
       <c r="K95" s="6"/>
@@ -3232,7 +3234,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -3240,7 +3242,7 @@
       <c r="E96" s="19"/>
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="12"/>
       <c r="I96" s="19"/>
       <c r="J96" s="5"/>
       <c r="K96" s="6"/>
@@ -3253,11 +3255,11 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="12"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="19"/>
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
@@ -3274,11 +3276,11 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="12"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="19"/>
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
@@ -3295,213 +3297,234 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="29"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="7"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B100" s="26"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="29"/>
+    </row>
+    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="10"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="7"/>
+      <c r="A102" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="34"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
       <c r="I103" s="19"/>
       <c r="J103" s="5"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="19"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
       <c r="Q103" s="7"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
       <c r="I104" s="19"/>
       <c r="J104" s="5"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="19"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
       <c r="Q104" s="7"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
       <c r="I105" s="19"/>
       <c r="J105" s="5"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="19"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
       <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="27"/>
-      <c r="Q106" s="29"/>
+        <v>114</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="7"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="29"/>
-    </row>
-    <row r="108" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="7"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="7"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
